--- a/biology/Botanique/Stachyuraceae/Stachyuraceae.xlsx
+++ b/biology/Botanique/Stachyuraceae/Stachyuraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Stachyuracées regroupe des plantes dicotylédones ; elle comprend 5 espèces du genre Stachyurus.
 Ce sont de petits arbres ou des arbustes, certains à feuillage persistant, à feuilles entières, simples, alternes, à inflorescences en grappes pendantes, des régions tempérées à tropicales, originaires d'Asie (de l'Himalaya au Japon).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Stachyurus composé des mots grecs σταχυσ / stachys, épi, et ουρ / our, queue, « queue en épis » en référence aux minces grappes que forment les fleurs de cette plante.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été classée dans l'ancien ordre des Theales.
-La classification classique, Cronquist (1981), la situe dans l'ordre des Violales, ordre non reconnu par la classification phylogénétique APG (1998)[1].
-La classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] la situent dans l'ordre des Crossosomatales.
+La classification classique, Cronquist (1981), la situe dans l'ordre des Violales, ordre non reconnu par la classification phylogénétique APG (1998).
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) la situent dans l'ordre des Crossosomatales.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010)[4], NCBI  (2 juin 2010)[5] et DELTA Angio           (2 juin 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010), NCBI  (2 juin 2010) et DELTA Angio           (2 juin 2010) :
 genre Stachyurus Siebold &amp; Zucc.</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juin 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juin 2010) :
 genre Stachyurus
 Stachyurus chinensis
 Stachyurus cordatulus
